--- a/map.xlsx
+++ b/map.xlsx
@@ -5,10 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,9 +23,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="13">
   <si>
     <t xml:space="preserve">.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G</t>
   </si>
   <si>
     <t xml:space="preserve">Y</t>
@@ -34,19 +40,28 @@
     <t xml:space="preserve">W</t>
   </si>
   <si>
-    <t xml:space="preserve">G</t>
+    <t xml:space="preserve">g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
   </si>
   <si>
     <t xml:space="preserve">C</t>
   </si>
   <si>
-    <t xml:space="preserve">p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
+    <t xml:space="preserve">I</t>
   </si>
   <si>
     <t xml:space="preserve">O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k</t>
   </si>
 </sst>
 </file>
@@ -62,6 +77,7 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -107,7 +123,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,6 +134,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE7E6E6"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
@@ -140,8 +162,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <fgColor rgb="FF666666"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66CC"/>
+        <bgColor rgb="FFFF99CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF661900"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -152,20 +192,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF66CC"/>
-        <bgColor rgb="FFFF99CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor rgb="FF33CCCC"/>
+        <fgColor rgb="FF996600"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF6600"/>
         <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF66"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -210,7 +250,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -223,7 +263,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -231,11 +271,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -243,11 +283,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -270,10 +326,10 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF661900"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -297,7 +353,7 @@
       <rgbColor rgb="FF00B0F0"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFCCFF66"/>
       <rgbColor rgb="FF66FFFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -308,7 +364,7 @@
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF666666"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
@@ -330,17 +386,18 @@
   </sheetPr>
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="0" width="14.4"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.84651162790698"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.4"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.1116279069767"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="8" min="1" style="0" width="15.8744186046512"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.8744186046512"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.6279069767442"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.4"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -350,8 +407,8 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -359,20 +416,23 @@
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>3</v>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -394,18 +454,21 @@
       <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>1</v>
+      <c r="G2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="L2" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -414,8 +477,8 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
@@ -429,14 +492,17 @@
       <c r="G3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>5</v>
+      <c r="H3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="N3" s="0" t="n">
         <v>0</v>
@@ -452,34 +518,37 @@
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>7</v>
+      <c r="D4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>8</v>
+      <c r="H4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>0</v>
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
@@ -487,14 +556,14 @@
       <c r="D5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>7</v>
+      <c r="E5" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>0</v>
+      <c r="G5" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>0</v>
@@ -510,8 +579,8 @@
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
+      <c r="C6" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>0</v>
@@ -519,19 +588,19 @@
       <c r="E6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>0</v>
+      <c r="F6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
+      <c r="A7" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>0</v>
@@ -539,8 +608,8 @@
       <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>0</v>
+      <c r="D7" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>0</v>
@@ -548,8 +617,8 @@
       <c r="F7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>2</v>
+      <c r="G7" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>0</v>
@@ -565,20 +634,20 @@
       <c r="C8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>1</v>
+      <c r="D8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>5</v>
+      <c r="G8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -591,4 +660,810 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.446511627907"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="4"/>
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" customFormat="false" ht="58.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="10"/>
+    </row>
+    <row r="4" customFormat="false" ht="58.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:N8"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.446511627907"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="4"/>
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="10"/>
+    </row>
+    <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.446511627907"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/map.xlsx
+++ b/map.xlsx
@@ -387,17 +387,17 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="2" sqref="A3 I8 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="0" width="15.8744186046512"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.8279069767442"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.8744186046512"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.6279069767442"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.4"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="8" min="1" style="0" width="16.246511627907"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.246511627907"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.7674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -670,12 +670,12 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="I8" activeCellId="1" sqref="A3 I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.446511627907"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.8139534883721"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -943,12 +943,12 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="2" sqref="A3 I8 J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.446511627907"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.8139534883721"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1214,12 +1214,12 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="2" sqref="A3 I8 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.446511627907"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.8139534883721"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
